--- a/8_ELAV/by_hand.xlsx
+++ b/8_ELAV/by_hand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roblanfear/Documents/GitHub/CephalopodUCEs/8_ELAV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77433885-8371-F647-90CF-D893F89882AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C915D02-1D1B-DC49-9041-61C8946A7C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37520" yWindow="5340" windowWidth="28040" windowHeight="17440" xr2:uid="{B1E3D467-8283-EC48-93F8-5206F165FB10}"/>
+    <workbookView xWindow="1300" yWindow="760" windowWidth="28040" windowHeight="17420" xr2:uid="{B1E3D467-8283-EC48-93F8-5206F165FB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Species</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Octopus sinensis</t>
-  </si>
-  <si>
-    <t>CAHIKZ010002168</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,9 +556,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -569,5 +564,6 @@
     <hyperlink ref="D3" r:id="rId2" tooltip="Show report for OM481484.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/OM481484.1?report=genbank&amp;log$=nucltop&amp;blast_rank=11&amp;RID=7VFPEXRX014" xr:uid="{BD322F16-CA54-2041-A771-A704C888F255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>